--- a/dr/protected/commands/template/month_more.xlsx
+++ b/dr/protected/commands/template/month_more.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="7" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -1142,7 +1142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="208">
   <si>
     <t>地区表现标准月报表</t>
   </si>
@@ -2378,7 +2378,16 @@
     <t>20%(3)</t>
   </si>
   <si>
+    <t>技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+  </si>
+  <si>
+    <t>技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+  </si>
+  <si>
     <t>35%(4)</t>
+  </si>
+  <si>
+    <t>技术员最高生意额技术员金额</t>
   </si>
   <si>
     <t>23%(2)</t>
@@ -2535,14 +2544,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2634,6 +2643,13 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2642,7 +2658,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2656,24 +2736,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2685,43 +2759,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2735,15 +2790,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2757,48 +2806,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2819,6 +2828,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2868,7 +2888,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2880,7 +2948,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2892,19 +3032,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,139 +3062,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3066,31 +3092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3103,6 +3117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3217,9 +3237,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3239,26 +3276,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3281,30 +3303,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3320,6 +3320,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3352,205 +3372,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3562,22 +3582,22 @@
     <xf numFmtId="0" fontId="0" fillId="49" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3600,13 +3620,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1">
@@ -3624,7 +3644,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3633,13 +3653,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3648,16 +3668,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3666,16 +3686,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3684,10 +3704,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3696,13 +3716,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3711,22 +3731,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3741,13 +3761,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3756,16 +3776,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3774,7 +3794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3783,22 +3803,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3807,22 +3827,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3834,19 +3854,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3858,118 +3878,118 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="68" applyFont="1">
@@ -3987,16 +4007,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4020,7 +4040,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4083,10 +4103,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4097,10 +4117,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -4132,26 +4152,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -12628,8 +12648,8 @@
   <sheetPr/>
   <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -12649,7 +12669,7 @@
       <c r="C1" s="101"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="17.25" spans="1:4">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -13412,7 +13432,7 @@
         <v>103</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="C88" s="111" t="s">
         <v>180</v>
@@ -13424,10 +13444,10 @@
     <row r="89" s="2" customFormat="1" ht="49.5" spans="1:4">
       <c r="A89" s="56"/>
       <c r="B89" s="57" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="C89" s="111" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D89" s="58" t="s">
         <v>107</v>
@@ -13436,7 +13456,7 @@
     <row r="90" s="2" customFormat="1" ht="33" spans="1:4">
       <c r="A90" s="56"/>
       <c r="B90" s="57" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="C90" s="112" t="str">
         <f>B21</f>
@@ -13454,7 +13474,7 @@
         <v>112</v>
       </c>
       <c r="C91" s="111" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D91" s="58" t="s">
         <v>113</v>
@@ -13466,7 +13486,7 @@
         <v>114</v>
       </c>
       <c r="C92" s="111" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D92" s="58" t="s">
         <v>115</v>
@@ -13480,7 +13500,7 @@
         <v>117</v>
       </c>
       <c r="C93" s="113" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D93" s="61" t="s">
         <v>118</v>
@@ -13514,7 +13534,7 @@
         <v>123</v>
       </c>
       <c r="C96" s="116" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D96" s="67" t="s">
         <v>124</v>
@@ -13526,7 +13546,7 @@
         <v>125</v>
       </c>
       <c r="C97" s="116" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D97" s="67" t="s">
         <v>126</v>
@@ -13540,7 +13560,7 @@
         <v>128</v>
       </c>
       <c r="C98" s="117" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D98" s="70" t="s">
         <v>129</v>
@@ -13567,7 +13587,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="116" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D100" s="67" t="s">
         <v>133</v>
@@ -13591,7 +13611,7 @@
         <v>136</v>
       </c>
       <c r="C102" s="120" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D102" s="75" t="s">
         <v>137</v>
@@ -13605,7 +13625,7 @@
         <v>139</v>
       </c>
       <c r="C103" s="120" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D103" s="75" t="s">
         <v>137</v>
@@ -13617,7 +13637,7 @@
         <v>140</v>
       </c>
       <c r="C104" s="120" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D104" s="75" t="s">
         <v>137</v>
@@ -13643,7 +13663,7 @@
         <v>143</v>
       </c>
       <c r="C106" s="122" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D106" s="79" t="s">
         <v>144</v>
@@ -13652,10 +13672,10 @@
     <row r="107" s="3" customFormat="1" ht="99" spans="1:4">
       <c r="A107" s="74"/>
       <c r="B107" s="74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C107" s="122" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D107" s="75" t="s">
         <v>146</v>
@@ -13669,7 +13689,7 @@
         <v>148</v>
       </c>
       <c r="C108" s="120" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D108" s="75" t="s">
         <v>149</v>
@@ -13681,7 +13701,7 @@
         <v>150</v>
       </c>
       <c r="C109" s="120" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D109" s="75" t="s">
         <v>151</v>
@@ -13693,7 +13713,7 @@
         <v>152</v>
       </c>
       <c r="C110" s="120" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D110" s="75" t="s">
         <v>109</v>
@@ -13707,7 +13727,7 @@
         <v>154</v>
       </c>
       <c r="C111" s="120" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D111" s="75" t="s">
         <v>155</v>
@@ -13719,7 +13739,7 @@
         <v>156</v>
       </c>
       <c r="C112" s="120" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D112" s="75" t="s">
         <v>137</v>
@@ -13731,7 +13751,7 @@
         <v>157</v>
       </c>
       <c r="C113" s="123" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D113" s="75" t="s">
         <v>158</v>
@@ -13743,7 +13763,7 @@
         <v>159</v>
       </c>
       <c r="C114" s="120" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D114" s="75" t="s">
         <v>137</v>
@@ -13779,7 +13799,7 @@
         <v>161</v>
       </c>
       <c r="C117" s="124" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D117" s="84" t="s">
         <v>162</v>
@@ -13793,7 +13813,7 @@
         <v>164</v>
       </c>
       <c r="C118" s="125" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D118" s="88" t="s">
         <v>165</v>
@@ -13805,7 +13825,7 @@
         <v>166</v>
       </c>
       <c r="C119" s="125" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D119" s="84" t="s">
         <v>167</v>
@@ -13819,7 +13839,7 @@
         <v>169</v>
       </c>
       <c r="C120" s="126" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D120" s="88" t="s">
         <v>170</v>
@@ -13831,7 +13851,7 @@
         <v>171</v>
       </c>
       <c r="C121" s="126" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D121" s="88" t="s">
         <v>172</v>
@@ -13843,7 +13863,7 @@
         <v>173</v>
       </c>
       <c r="C122" s="124" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D122" s="88" t="s">
         <v>172</v>
@@ -13867,7 +13887,7 @@
         <v>176</v>
       </c>
       <c r="C124" s="127" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D124" s="92" t="s">
         <v>165</v>
@@ -15211,7 +15231,7 @@
       <c r="B73" s="28"/>
       <c r="C73" s="29"/>
       <c r="D73" s="30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E73" s="31" t="e">
         <f>SUM(E75:E124)</f>
@@ -15222,7 +15242,7 @@
       <c r="A74" s="32"/>
       <c r="B74" s="33"/>
       <c r="C74" s="34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="31" t="e">
